--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\R55\TSPManagment\resources\views\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>HP</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ai description ta ki amara aikhan theke add korbo naki course category theke asbe?
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>TSP MANAGEMENT</t>
   </si>
@@ -217,13 +252,118 @@
   </si>
   <si>
     <t>Course Category(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">email </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender </t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admission_date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialization </t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>course_name</t>
+  </si>
+  <si>
+    <t>trainer_id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>course_duretion</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>course_fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location </t>
+  </si>
+  <si>
+    <t>modiul_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student_id </t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transaction_date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment_method  </t>
+  </si>
+  <si>
+    <t>receipt_number</t>
+  </si>
+  <si>
+    <t>student_id</t>
+  </si>
+  <si>
+    <t>modiul_id</t>
+  </si>
+  <si>
+    <t>markes</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>issue_date</t>
+  </si>
+  <si>
+    <t>issued_by</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,8 +418,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +473,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -389,7 +561,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,6 +573,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,15 +886,15 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -739,13 +912,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1083,11 +1256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,50 +1278,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1157,22 +1330,22 @@
         <v>34</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>34</v>
@@ -1182,23 +1355,23 @@
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
+      <c r="C7" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>44</v>
@@ -1208,160 +1381,160 @@
       <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
+      <c r="C8" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>77</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
+      <c r="C12" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="9" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1369,17 +1542,17 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1387,14 +1560,14 @@
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1403,14 +1576,14 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>33</v>
+        <v>77</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1419,25 +1592,21 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1448,5 +1617,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -24,41 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>HP</author>
-  </authors>
-  <commentList>
-    <comment ref="D10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>HP:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ai description ta ki amara aikhan theke add korbo naki course category theke asbe?
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
@@ -363,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,28 +383,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,12 +424,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +503,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,8 +513,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,15 +825,15 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -912,13 +851,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1256,11 +1195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,26 +1217,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1602,12 +1541,12 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
@@ -1617,6 +1556,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -504,6 +504,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,7 +514,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,15 +825,15 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -851,13 +851,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1199,7 +1199,7 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,26 +1217,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1375,7 +1375,7 @@
       <c r="C10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="5" t="s">

--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -1199,7 +1199,7 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -1199,7 +1199,7 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1547,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="5"/>
     </row>
   </sheetData>

--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -1199,7 +1199,7 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\R55\TSPManagment\resources\views\resources\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\R55\TSPManagement\resources\views\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
   <si>
     <t>TSP MANAGEMENT</t>
   </si>
@@ -1199,7 +1199,7 @@
   <dimension ref="B3:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,8 +1521,8 @@
         <v>77</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>76</v>
+      <c r="F17" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1534,7 +1534,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1545,7 +1545,9 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="5"/>

--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
   <si>
     <t>TSP MANAGEMENT</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>issued_by</t>
+  </si>
+  <si>
+    <t>I have should categoy</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I19"/>
+  <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,6 +1555,11 @@
       <c r="H19" s="17"/>
       <c r="I19" s="5"/>
     </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:I4"/>

--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>TSP MANAGEMENT</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>I have should categoy</t>
+  </si>
+  <si>
+    <t>Makres(7)</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1264,7 @@
         <v>58</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>62</v>

--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="TSP" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
   <si>
     <t>TSP MANAGEMENT</t>
   </si>
@@ -213,9 +213,6 @@
     <t>TSP MANAGEMENT DATABASE</t>
   </si>
   <si>
-    <t>Certificate(8)</t>
-  </si>
-  <si>
     <t>Course Category(1)</t>
   </si>
   <si>
@@ -324,17 +321,38 @@
     <t>issued_by</t>
   </si>
   <si>
-    <t>I have should categoy</t>
-  </si>
-  <si>
-    <t>Makres(7)</t>
+    <t>batch_id</t>
+  </si>
+  <si>
+    <t>Batch (4)</t>
+  </si>
+  <si>
+    <t>Cours Modiul(5)</t>
+  </si>
+  <si>
+    <t>Student Information(6)</t>
+  </si>
+  <si>
+    <t>Fees Collection (7)</t>
+  </si>
+  <si>
+    <t>Makres(8)</t>
+  </si>
+  <si>
+    <t>Certificate(9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Student Attendence </t>
+  </si>
+  <si>
+    <t>Add Role</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,8 +407,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,7 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -509,7 +541,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,6 +550,17 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="H11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,15 +873,15 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -857,13 +899,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1146,54 +1188,72 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
       <c r="J17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I24" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="25"/>
       <c r="M24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
       <c r="M25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M29" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M30" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="J1:P2"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="I24:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1202,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I21"/>
+  <dimension ref="B3:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,40 +1273,43 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>54</v>
@@ -1254,23 +1317,26 @@
       <c r="D5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>56</v>
+      <c r="E5" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -1280,7 +1346,7 @@
       <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="22" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1292,280 +1358,323 @@
       <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>87</v>
+      <c r="G7" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>86</v>
+      <c r="E8" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="J9" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
-        <v>99</v>
-      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="B3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/views/resources/database/TSP Management.xlsx
+++ b/resources/views/resources/database/TSP Management.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TSP" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="112">
   <si>
     <t>TSP MANAGEMENT</t>
   </si>
@@ -346,6 +346,21 @@
   </si>
   <si>
     <t>Add Role</t>
+  </si>
+  <si>
+    <t>attendence</t>
+  </si>
+  <si>
+    <t>class_no</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>status (0,1)</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -513,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -542,15 +557,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,9 +565,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -873,15 +889,15 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -899,13 +915,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -1194,14 +1210,14 @@
       </c>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="23" spans="9:13" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
@@ -1209,17 +1225,17 @@
       </c>
     </row>
     <row r="24" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="25"/>
+      <c r="J24" s="23"/>
       <c r="M24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
       <c r="M25" t="s">
         <v>45</v>
       </c>
@@ -1262,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J21"/>
+  <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,28 +1300,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
@@ -1317,7 +1333,7 @@
       <c r="D5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -1346,7 +1362,7 @@
       <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1375,7 +1391,7 @@
       <c r="D7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1404,7 +1420,7 @@
       <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1636,16 +1652,16 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1662,15 +1678,70 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
